--- a/data/Experimental-Results.xlsx
+++ b/data/Experimental-Results.xlsx
@@ -76,9 +76,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -102,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,12 +118,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -132,24 +151,35 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -732,11 +762,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="618835320"/>
-        <c:axId val="625026080"/>
+        <c:axId val="332747232"/>
+        <c:axId val="332745664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="618835320"/>
+        <c:axId val="332747232"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -779,7 +809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625026080"/>
+        <c:crossAx val="332745664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -787,7 +817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="625026080"/>
+        <c:axId val="332745664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -797,7 +827,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="618835320"/>
+        <c:crossAx val="332747232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1213,11 +1243,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="740473784"/>
-        <c:axId val="472410312"/>
+        <c:axId val="332746840"/>
+        <c:axId val="332745272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="740473784"/>
+        <c:axId val="332746840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1260,7 +1290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472410312"/>
+        <c:crossAx val="332745272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1268,7 +1298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="472410312"/>
+        <c:axId val="332745272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,7 +1308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="740473784"/>
+        <c:crossAx val="332746840"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2877,8 +2907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J20" sqref="F15:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2887,23 +2917,25 @@
     <col min="2" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="10" width="9" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -3045,20 +3077,20 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -3072,16 +3104,16 @@
         <v>2</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3200,43 +3232,43 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3350,13 +3382,13 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -3369,10 +3401,10 @@
       <c r="D23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3389,14 +3421,14 @@
       <c r="D24" s="4">
         <v>12.184696569920844</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="7">
         <v>2</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="6">
         <f>(B32-$B$31)/$B$31</f>
         <v>-0.85711508487853605</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="6">
         <f>(B18-$B$17)/$B$17</f>
         <v>-0.99843193335913916</v>
       </c>
@@ -3414,14 +3446,14 @@
       <c r="D25" s="4">
         <v>12.184696569920844</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="7">
         <v>3</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="6">
         <f t="shared" ref="G25:G26" si="0">(B33-$B$31)/$B$31</f>
         <v>-0.85826709774434773</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="6">
         <f t="shared" ref="H25:H26" si="1">(B19-$B$17)/$B$17</f>
         <v>-0.99977388434467085</v>
       </c>
@@ -3439,14 +3471,14 @@
       <c r="D26" s="4">
         <v>12.184696569920844</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="8">
         <v>4</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="6">
         <f t="shared" si="0"/>
         <v>-0.85842485934273161</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="6">
         <f t="shared" si="1"/>
         <v>-0.99995765688637894</v>
       </c>
@@ -3471,23 +3503,23 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3549,14 +3581,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G15:J15"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
